--- a/COSC 1337 Assignment 01 Self Evaluation.xlsx
+++ b/COSC 1337 Assignment 01 Self Evaluation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EED381-2E1C-401D-8BE0-BBFDD03BC85C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28170" yWindow="615" windowWidth="17625" windowHeight="18165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28170" yWindow="615" windowWidth="17625" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 05" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
   <si>
     <t>Student Name:</t>
   </si>
@@ -47,9 +46,6 @@
   </si>
   <si>
     <t>Any comments or questions? Put them here.</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>If a 2nd submission is required,
@@ -772,7 +768,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1421,18 +1417,6 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1454,6 +1438,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1761,19 +1757,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="shtAssignment05"/>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,22 +1790,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="42"/>
-      <c r="D1" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>8</v>
+      <c r="D1" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="67"/>
@@ -1817,13 +1813,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="16"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="77"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="67"/>
@@ -1831,13 +1827,13 @@
         <v>5</v>
       </c>
       <c r="F3" s="16"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="77"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="67"/>
@@ -1845,8 +1841,8 @@
         <v>5</v>
       </c>
       <c r="F4" s="16"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="78"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -1862,13 +1858,13 @@
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>3</v>
@@ -1885,7 +1881,7 @@
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="39">
         <v>20</v>
@@ -1898,891 +1894,891 @@
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
-        <v>12</v>
+      <c r="A8" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="45"/>
       <c r="D8" s="22" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E8" s="23">
         <v>5</v>
       </c>
       <c r="F8" s="23">
         <f t="shared" ref="F8:F34" si="0">IF(D8="No",-E8,0)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E9" s="27">
         <v>5</v>
       </c>
       <c r="F9" s="27">
         <f t="shared" ref="F9:F10" si="1">IF(D9="No",-E9,0)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E10" s="27">
         <v>5</v>
       </c>
       <c r="F10" s="27">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E11" s="19">
         <v>5</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
-        <v>18</v>
+      <c r="A12" s="78" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E12" s="31">
         <v>3</v>
       </c>
       <c r="F12" s="31">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E13" s="27">
         <v>3</v>
       </c>
       <c r="F13" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E14" s="27">
         <v>3</v>
       </c>
       <c r="F14" s="27">
         <f t="shared" ref="F14" si="2">IF(D14="No",-E14,0)</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E15" s="27">
         <v>3</v>
       </c>
       <c r="F15" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E16" s="27">
         <v>3</v>
       </c>
       <c r="F16" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E17" s="27">
         <v>3</v>
       </c>
       <c r="F17" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E18" s="27">
         <v>3</v>
       </c>
       <c r="F18" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E19" s="27">
         <v>3</v>
       </c>
       <c r="F19" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E20" s="27">
         <v>3</v>
       </c>
       <c r="F20" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E21" s="27">
         <v>3</v>
       </c>
       <c r="F21" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="33"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E22" s="54">
         <v>3</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="55"/>
       <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
-        <v>39</v>
+      <c r="A23" s="78" t="s">
+        <v>38</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E23" s="31">
         <v>3</v>
       </c>
       <c r="F23" s="31">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E24" s="27">
         <v>3</v>
       </c>
       <c r="F24" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E25" s="27">
         <v>3</v>
       </c>
       <c r="F25" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E26" s="27">
         <v>3</v>
       </c>
       <c r="F26" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E27" s="27">
         <v>3</v>
       </c>
       <c r="F27" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E28" s="27">
         <v>3</v>
       </c>
       <c r="F28" s="27">
         <f t="shared" ref="F28" si="3">IF(D28="No",-E28,0)</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E29" s="27">
         <v>3</v>
       </c>
       <c r="F29" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E30" s="27">
         <v>3</v>
       </c>
       <c r="F30" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
     </row>
     <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E31" s="27">
         <v>3</v>
       </c>
       <c r="F31" s="27">
         <f t="shared" ref="F31" si="4">IF(D31="No",-E31,0)</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E32" s="27">
         <v>3</v>
       </c>
       <c r="F32" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E33" s="27">
         <v>3</v>
       </c>
       <c r="F33" s="27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E34" s="59">
         <v>5</v>
       </c>
       <c r="F34" s="59">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G34" s="60"/>
       <c r="H34" s="60"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="64" t="s">
         <v>58</v>
-      </c>
-      <c r="B35" s="64" t="s">
-        <v>59</v>
       </c>
       <c r="C35" s="65"/>
       <c r="D35" s="61"/>
       <c r="E35" s="66"/>
       <c r="F35" s="66">
         <f>MAX(-35,SUM(F8:F34))</f>
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="G35" s="62"/>
       <c r="H35" s="62"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="68" t="s">
-        <v>45</v>
+      <c r="A36" s="75" t="s">
+        <v>44</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="45"/>
       <c r="D36" s="22" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E36" s="23">
         <v>5</v>
       </c>
       <c r="F36" s="23">
         <f t="shared" ref="F36:F42" si="5">IF(D36="No",-E36,0)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E37" s="27">
         <v>5</v>
       </c>
       <c r="F37" s="27">
         <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E38" s="27">
         <v>5</v>
       </c>
       <c r="F38" s="27">
         <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E39" s="19">
         <v>5</v>
       </c>
       <c r="F39" s="19">
         <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>47</v>
-      </c>
       <c r="D40" s="30" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E40" s="31">
         <v>3</v>
       </c>
       <c r="F40" s="31">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E41" s="27">
         <v>3</v>
       </c>
       <c r="F41" s="27">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" s="58" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E42" s="59">
         <v>3</v>
       </c>
       <c r="F42" s="59">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G42" s="60"/>
       <c r="H42" s="60"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="64" t="s">
         <v>58</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>59</v>
       </c>
       <c r="C43" s="65"/>
       <c r="D43" s="61"/>
       <c r="E43" s="66"/>
       <c r="F43" s="66">
         <f>MAX(-30,SUM(F36:F42))</f>
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="G43" s="62"/>
       <c r="H43" s="62"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="68" t="s">
-        <v>51</v>
+      <c r="A44" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="22" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E44" s="23">
         <v>5</v>
       </c>
       <c r="F44" s="23">
         <f t="shared" ref="F44:F50" si="6">IF(D44="No",-E44,0)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
+      <c r="A45" s="76"/>
       <c r="B45" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E45" s="27">
         <v>5</v>
       </c>
       <c r="F45" s="27">
         <f t="shared" si="6"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
+      <c r="A46" s="76"/>
       <c r="B46" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E46" s="27">
         <v>5</v>
       </c>
       <c r="F46" s="27">
         <f t="shared" si="6"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="20"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E47" s="19">
         <v>5</v>
       </c>
       <c r="F47" s="19">
         <f t="shared" si="6"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="71" t="s">
-        <v>52</v>
+      <c r="A48" s="78" t="s">
+        <v>51</v>
       </c>
       <c r="B48" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="46" t="s">
-        <v>75</v>
-      </c>
       <c r="D48" s="30" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E48" s="31">
         <v>3</v>
       </c>
       <c r="F48" s="31">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
+      <c r="A49" s="76"/>
       <c r="B49" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E49" s="27">
         <v>3</v>
       </c>
       <c r="F49" s="27">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
+      <c r="A50" s="76"/>
       <c r="B50" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" s="59">
         <v>3</v>
@@ -2796,17 +2792,17 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="64" t="s">
         <v>58</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>59</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="61"/>
       <c r="E51" s="66"/>
       <c r="F51" s="66">
         <f>MAX(-30,SUM(F44:F50))</f>
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="G51" s="62"/>
       <c r="H51" s="62"/>
@@ -2826,7 +2822,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3">
         <f>MAX(-99,F7+F35+F43+F51)</f>
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -2834,14 +2830,14 @@
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="50"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5">
         <f>100+F53</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -2849,23 +2845,23 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uZnhGM/e3JlpsMPuHDWZB5HzVoyK6DagSpWvGLeh8vkp2G28fJrOc4B57AcbmhUJJmYkyeajPM/FqNuoHP/qFA==" saltValue="wi4E9hNRwYsPVN1uHYmQyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="10">
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A22"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A23:A34"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A42"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>0.1</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D7:D51" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D7:D51">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
